--- a/publication_counts/publication_counts.xlsx
+++ b/publication_counts/publication_counts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VCheplyg\Dropbox\20-lab\Failure-MLMi\failed_machine_learning\publication_counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABEE439-3657-4441-A0D6-DF2B3655C068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760FFF93-BF14-4B80-84F5-AB677E0A31C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2316A85-4211-4514-AFE1-F68101DD938F}"/>
   </bookViews>
   <sheets>
-    <sheet name="clean" sheetId="6" r:id="rId1"/>
-    <sheet name="raw" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="clean" sheetId="6" r:id="rId2"/>
+    <sheet name="raw" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Publications (total)</t>
   </si>
@@ -129,9 +130,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>Keyword query</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -154,6 +152,15 @@
   </si>
   <si>
     <t>Percetages of papers:</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -279,6 +286,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NL"/>
+              <a:t>% of publications by field</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -1396,15 +1429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1264920</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1728,11 +1761,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827CC52C-D677-4614-9B03-D336EBD038B2}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="6">
+        <v>805</v>
+      </c>
+      <c r="C2" s="6">
+        <v>373</v>
+      </c>
+      <c r="D2" s="6">
+        <v>63</v>
+      </c>
+      <c r="E2" s="6">
+        <v>492</v>
+      </c>
+      <c r="F2" s="6">
+        <v>317</v>
+      </c>
+      <c r="G2" s="6">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6">
+        <v>24081</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1054</v>
+      </c>
+      <c r="C3" s="6">
+        <v>526</v>
+      </c>
+      <c r="D3" s="6">
+        <v>68</v>
+      </c>
+      <c r="E3" s="6">
+        <v>556</v>
+      </c>
+      <c r="F3" s="6">
+        <v>355</v>
+      </c>
+      <c r="G3" s="6">
+        <v>52</v>
+      </c>
+      <c r="H3" s="6">
+        <v>28739</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1062</v>
+      </c>
+      <c r="C4" s="6">
+        <v>473</v>
+      </c>
+      <c r="D4" s="6">
+        <v>88</v>
+      </c>
+      <c r="E4" s="6">
+        <v>623</v>
+      </c>
+      <c r="F4" s="6">
+        <v>376</v>
+      </c>
+      <c r="G4" s="6">
+        <v>59</v>
+      </c>
+      <c r="H4" s="6">
+        <v>29643</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1118</v>
+      </c>
+      <c r="C5" s="6">
+        <v>514</v>
+      </c>
+      <c r="D5" s="6">
+        <v>88</v>
+      </c>
+      <c r="E5" s="6">
+        <v>655</v>
+      </c>
+      <c r="F5" s="6">
+        <v>400</v>
+      </c>
+      <c r="G5" s="6">
+        <v>74</v>
+      </c>
+      <c r="H5" s="6">
+        <v>32146</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1117</v>
+      </c>
+      <c r="C6" s="6">
+        <v>513</v>
+      </c>
+      <c r="D6" s="6">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6">
+        <v>677</v>
+      </c>
+      <c r="F6" s="6">
+        <v>392</v>
+      </c>
+      <c r="G6" s="6">
+        <v>76</v>
+      </c>
+      <c r="H6" s="6">
+        <v>34913</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1094</v>
+      </c>
+      <c r="C7" s="6">
+        <v>469</v>
+      </c>
+      <c r="D7" s="6">
+        <v>98</v>
+      </c>
+      <c r="E7" s="6">
+        <v>638</v>
+      </c>
+      <c r="F7" s="6">
+        <v>393</v>
+      </c>
+      <c r="G7" s="6">
+        <v>84</v>
+      </c>
+      <c r="H7" s="6">
+        <v>38467</v>
+      </c>
+      <c r="I7" s="6">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1291</v>
+      </c>
+      <c r="C8" s="6">
+        <v>544</v>
+      </c>
+      <c r="D8" s="6">
+        <v>168</v>
+      </c>
+      <c r="E8" s="6">
+        <v>765</v>
+      </c>
+      <c r="F8" s="6">
+        <v>472</v>
+      </c>
+      <c r="G8" s="6">
+        <v>114</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43049</v>
+      </c>
+      <c r="I8" s="6">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1462</v>
+      </c>
+      <c r="C9" s="6">
+        <v>576</v>
+      </c>
+      <c r="D9" s="6">
+        <v>262</v>
+      </c>
+      <c r="E9" s="6">
+        <v>881</v>
+      </c>
+      <c r="F9" s="6">
+        <v>515</v>
+      </c>
+      <c r="G9" s="6">
+        <v>148</v>
+      </c>
+      <c r="H9" s="6">
+        <v>43799</v>
+      </c>
+      <c r="I9" s="6">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1680</v>
+      </c>
+      <c r="C10" s="6">
+        <v>688</v>
+      </c>
+      <c r="D10" s="6">
+        <v>348</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1043</v>
+      </c>
+      <c r="F10" s="6">
+        <v>590</v>
+      </c>
+      <c r="G10" s="6">
+        <v>214</v>
+      </c>
+      <c r="H10" s="6">
+        <v>47515</v>
+      </c>
+      <c r="I10" s="6">
+        <v>9417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BDAFD-FE9C-4333-B9D2-94CB7456E27A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" activeCellId="1" sqref="A2:A9 A25:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1744,11 +2082,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3">
@@ -2027,7 +2368,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -2070,7 +2411,7 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -2107,12 +2448,12 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <f>E3/E8*100</f>
@@ -2153,7 +2494,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <f>E4/E9*100</f>
@@ -2194,7 +2535,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <f>E6/E8*100</f>
@@ -2235,42 +2576,42 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <f>E7/E9*100</f>
         <v>1.5522875816993464</v>
       </c>
       <c r="F16">
-        <f>F7/F9*100</f>
+        <f t="shared" ref="F16:M16" si="3">F7/F9*100</f>
         <v>1.9585687382297552</v>
       </c>
       <c r="G16">
-        <f>G7/G9*100</f>
+        <f t="shared" si="3"/>
         <v>1.9706078824315298</v>
       </c>
       <c r="H16">
-        <f>H7/H9*100</f>
+        <f t="shared" si="3"/>
         <v>2.135642135642136</v>
       </c>
       <c r="I16">
-        <f>I7/I9*100</f>
+        <f t="shared" si="3"/>
         <v>2.0810514786418399</v>
       </c>
       <c r="J16">
-        <f>J7/J9*100</f>
+        <f t="shared" si="3"/>
         <v>2.0720276270350273</v>
       </c>
       <c r="K16">
-        <f>K7/K9*100</f>
+        <f t="shared" si="3"/>
         <v>2.1889400921658986</v>
       </c>
       <c r="L16">
-        <f>L7/L9*100</f>
+        <f t="shared" si="3"/>
         <v>2.139965297860035</v>
       </c>
       <c r="M16">
-        <f>M7/M9*100</f>
+        <f t="shared" si="3"/>
         <v>2.2724859297016033</v>
       </c>
     </row>
@@ -2280,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CB0B89-8095-47F8-A007-667A3CFD063E}">
   <dimension ref="A2:N49"/>
   <sheetViews>
@@ -2920,7 +3261,7 @@
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
